--- a/resultados/pretratamiento-tablas-control/pretrat-espana-elo-facil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-espana-elo-facil.xlsx
@@ -4001,10 +4001,10 @@
         <v>0.11</v>
       </c>
       <c r="H2">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="I2">
-        <v>0.972</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4030,10 +4030,10 @@
         <v>3.606</v>
       </c>
       <c r="H3">
-        <v>1.141</v>
+        <v>1.04</v>
       </c>
       <c r="I3">
-        <v>0.255</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4059,10 +4059,10 @@
         <v>0.371</v>
       </c>
       <c r="H4">
-        <v>0.096</v>
+        <v>0.098</v>
       </c>
       <c r="I4">
-        <v>0.924</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4088,10 +4088,10 @@
         <v>1.121</v>
       </c>
       <c r="H5">
-        <v>0.275</v>
+        <v>0.215</v>
       </c>
       <c r="I5">
-        <v>0.784</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4117,10 +4117,10 @@
         <v>0.671</v>
       </c>
       <c r="H6">
-        <v>0.159</v>
+        <v>0.147</v>
       </c>
       <c r="I6">
-        <v>0.873</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4146,10 +4146,10 @@
         <v>-0.654</v>
       </c>
       <c r="H7">
-        <v>-0.164</v>
+        <v>-0.172</v>
       </c>
       <c r="I7">
-        <v>0.87</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4175,10 +4175,10 @@
         <v>0.077</v>
       </c>
       <c r="H8">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="I8">
-        <v>0.952</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4204,10 +4204,10 @@
         <v>-1.918</v>
       </c>
       <c r="H9">
-        <v>-1.465</v>
+        <v>-1.459</v>
       </c>
       <c r="I9">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4233,10 +4233,10 @@
         <v>-0.043</v>
       </c>
       <c r="H10">
-        <v>-0.028</v>
+        <v>-0.032</v>
       </c>
       <c r="I10">
-        <v>0.978</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4262,10 +4262,10 @@
         <v>-0.074</v>
       </c>
       <c r="H11">
-        <v>-0.047</v>
+        <v>-0.042</v>
       </c>
       <c r="I11">
-        <v>0.963</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4291,10 +4291,10 @@
         <v>-0.649</v>
       </c>
       <c r="H12">
-        <v>-0.389</v>
+        <v>-0.391</v>
       </c>
       <c r="I12">
-        <v>0.697</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4320,10 +4320,10 @@
         <v>-0.437</v>
       </c>
       <c r="H13">
-        <v>-0.272</v>
+        <v>-0.257</v>
       </c>
       <c r="I13">
-        <v>0.786</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4349,10 +4349,10 @@
         <v>-0.023</v>
       </c>
       <c r="H14">
-        <v>-0.985</v>
+        <v>-1.092</v>
       </c>
       <c r="I14">
-        <v>0.326</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4378,10 +4378,10 @@
         <v>0.027</v>
       </c>
       <c r="H15">
-        <v>0.928</v>
+        <v>1.204</v>
       </c>
       <c r="I15">
-        <v>0.354</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4407,10 +4407,10 @@
         <v>0.052</v>
       </c>
       <c r="H16">
-        <v>1.315</v>
+        <v>1.937</v>
       </c>
       <c r="I16">
-        <v>0.19</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4436,10 +4436,10 @@
         <v>0.057</v>
       </c>
       <c r="H17">
-        <v>1.269</v>
+        <v>1.052</v>
       </c>
       <c r="I17">
-        <v>0.206</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4465,10 +4465,10 @@
         <v>0.062</v>
       </c>
       <c r="H18">
-        <v>1.328</v>
+        <v>1.229</v>
       </c>
       <c r="I18">
-        <v>0.185</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4494,10 +4494,10 @@
         <v>-0.033</v>
       </c>
       <c r="H19">
-        <v>-0.666</v>
+        <v>-0.515</v>
       </c>
       <c r="I19">
-        <v>0.506</v>
+        <v>0.606</v>
       </c>
     </row>
   </sheetData>
@@ -4583,10 +4583,10 @@
         <v>-2.692</v>
       </c>
       <c r="I2">
-        <v>-0.88</v>
+        <v>-0.819</v>
       </c>
       <c r="J2">
-        <v>0.38</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4615,10 +4615,10 @@
         <v>2.089</v>
       </c>
       <c r="I3">
-        <v>0.68</v>
+        <v>0.724</v>
       </c>
       <c r="J3">
-        <v>0.497</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4647,10 +4647,10 @@
         <v>1.774</v>
       </c>
       <c r="I4">
-        <v>0.473</v>
+        <v>0.477</v>
       </c>
       <c r="J4">
-        <v>0.637</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4679,10 +4679,10 @@
         <v>0.87</v>
       </c>
       <c r="I5">
-        <v>0.22</v>
+        <v>0.196</v>
       </c>
       <c r="J5">
-        <v>0.826</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4711,10 +4711,10 @@
         <v>8.042</v>
       </c>
       <c r="I6">
-        <v>1.986</v>
+        <v>3.069</v>
       </c>
       <c r="J6">
-        <v>0.048</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4743,10 +4743,10 @@
         <v>1.195</v>
       </c>
       <c r="I7">
-        <v>0.309</v>
+        <v>0.294</v>
       </c>
       <c r="J7">
-        <v>0.758</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4775,10 +4775,10 @@
         <v>2.174</v>
       </c>
       <c r="I8">
-        <v>1.758</v>
+        <v>1.94</v>
       </c>
       <c r="J8">
-        <v>0.08</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4807,10 +4807,10 @@
         <v>-0.953</v>
       </c>
       <c r="I9">
-        <v>-0.747</v>
+        <v>-0.653</v>
       </c>
       <c r="J9">
-        <v>0.456</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4839,10 +4839,10 @@
         <v>0.467</v>
       </c>
       <c r="I10">
-        <v>0.314</v>
+        <v>0.318</v>
       </c>
       <c r="J10">
-        <v>0.753</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4871,10 +4871,10 @@
         <v>0.359</v>
       </c>
       <c r="I11">
-        <v>0.233</v>
+        <v>0.22</v>
       </c>
       <c r="J11">
-        <v>0.8159999999999999</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4903,10 +4903,10 @@
         <v>-2.868</v>
       </c>
       <c r="I12">
-        <v>-1.783</v>
+        <v>-2.273</v>
       </c>
       <c r="J12">
-        <v>0.076</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4935,10 +4935,10 @@
         <v>-0.774</v>
       </c>
       <c r="I13">
-        <v>-0.497</v>
+        <v>-0.433</v>
       </c>
       <c r="J13">
-        <v>0.62</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4967,10 +4967,10 @@
         <v>-0.031</v>
       </c>
       <c r="I14">
-        <v>-1.411</v>
+        <v>-1.198</v>
       </c>
       <c r="J14">
-        <v>0.16</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4999,10 +4999,10 @@
         <v>0.01</v>
       </c>
       <c r="I15">
-        <v>0.34</v>
+        <v>0.258</v>
       </c>
       <c r="J15">
-        <v>0.734</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5031,10 +5031,10 @@
         <v>0.036</v>
       </c>
       <c r="I16">
-        <v>0.9379999999999999</v>
+        <v>1.381</v>
       </c>
       <c r="J16">
-        <v>0.349</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5063,10 +5063,10 @@
         <v>0.089</v>
       </c>
       <c r="I17">
-        <v>2.069</v>
+        <v>1.7</v>
       </c>
       <c r="J17">
-        <v>0.04</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5095,10 +5095,10 @@
         <v>0.09</v>
       </c>
       <c r="I18">
-        <v>2.009</v>
+        <v>1.956</v>
       </c>
       <c r="J18">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5127,10 +5127,10 @@
         <v>0.036</v>
       </c>
       <c r="I19">
-        <v>0.758</v>
+        <v>0.61</v>
       </c>
       <c r="J19">
-        <v>0.449</v>
+        <v>0.542</v>
       </c>
     </row>
   </sheetData>
@@ -5223,10 +5223,10 @@
         <v>-1.025</v>
       </c>
       <c r="J2">
-        <v>-0.298</v>
+        <v>-0.252</v>
       </c>
       <c r="K2">
-        <v>0.766</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5258,10 +5258,10 @@
         <v>2.017</v>
       </c>
       <c r="J3">
-        <v>0.585</v>
+        <v>0.591</v>
       </c>
       <c r="K3">
-        <v>0.5590000000000001</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5293,10 +5293,10 @@
         <v>0.478</v>
       </c>
       <c r="J4">
-        <v>0.113</v>
+        <v>0.108</v>
       </c>
       <c r="K4">
-        <v>0.91</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5328,10 +5328,10 @@
         <v>1.032</v>
       </c>
       <c r="J5">
-        <v>0.232</v>
+        <v>0.229</v>
       </c>
       <c r="K5">
-        <v>0.8169999999999999</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5363,10 +5363,10 @@
         <v>6.064</v>
       </c>
       <c r="J6">
-        <v>1.328</v>
+        <v>1.754</v>
       </c>
       <c r="K6">
-        <v>0.185</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5398,10 +5398,10 @@
         <v>1.466</v>
       </c>
       <c r="J7">
-        <v>0.337</v>
+        <v>0.256</v>
       </c>
       <c r="K7">
-        <v>0.736</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5433,10 +5433,10 @@
         <v>1.661</v>
       </c>
       <c r="J8">
-        <v>1.193</v>
+        <v>1.464</v>
       </c>
       <c r="K8">
-        <v>0.234</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5468,10 +5468,10 @@
         <v>-0.736</v>
       </c>
       <c r="J9">
-        <v>-0.514</v>
+        <v>-0.474</v>
       </c>
       <c r="K9">
-        <v>0.608</v>
+        <v>0.635</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5506,7 +5506,7 @@
         <v>0.275</v>
       </c>
       <c r="K10">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5538,10 +5538,10 @@
         <v>0.546</v>
       </c>
       <c r="J11">
-        <v>0.316</v>
+        <v>0.335</v>
       </c>
       <c r="K11">
-        <v>0.752</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5573,10 +5573,10 @@
         <v>-2.449</v>
       </c>
       <c r="J12">
-        <v>-1.353</v>
+        <v>-1.469</v>
       </c>
       <c r="K12">
-        <v>0.177</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5608,10 +5608,10 @@
         <v>-0.96</v>
       </c>
       <c r="J13">
-        <v>-0.548</v>
+        <v>-0.39</v>
       </c>
       <c r="K13">
-        <v>0.584</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5643,10 +5643,10 @@
         <v>-0.032</v>
       </c>
       <c r="J14">
-        <v>-1.283</v>
+        <v>-1.286</v>
       </c>
       <c r="K14">
-        <v>0.201</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5678,10 +5678,10 @@
         <v>-0.015</v>
       </c>
       <c r="J15">
-        <v>-0.456</v>
+        <v>-0.375</v>
       </c>
       <c r="K15">
-        <v>0.649</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5713,10 +5713,10 @@
         <v>0.024</v>
       </c>
       <c r="J16">
-        <v>0.5620000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="K16">
-        <v>0.575</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5748,10 +5748,10 @@
         <v>0.073</v>
       </c>
       <c r="J17">
-        <v>1.513</v>
+        <v>1.442</v>
       </c>
       <c r="K17">
-        <v>0.132</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5783,10 +5783,10 @@
         <v>0.053</v>
       </c>
       <c r="J18">
-        <v>1.037</v>
+        <v>1.289</v>
       </c>
       <c r="K18">
-        <v>0.301</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5818,10 +5818,10 @@
         <v>0.008</v>
       </c>
       <c r="J19">
-        <v>0.149</v>
+        <v>0.154</v>
       </c>
       <c r="K19">
-        <v>0.882</v>
+        <v>0.878</v>
       </c>
     </row>
   </sheetData>
@@ -5914,10 +5914,10 @@
         <v>0.229</v>
       </c>
       <c r="J2">
-        <v>0.057</v>
+        <v>0.044</v>
       </c>
       <c r="K2">
-        <v>0.954</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5949,10 +5949,10 @@
         <v>1.856</v>
       </c>
       <c r="J3">
-        <v>0.464</v>
+        <v>0.504</v>
       </c>
       <c r="K3">
-        <v>0.643</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5984,10 +5984,10 @@
         <v>1.357</v>
       </c>
       <c r="J4">
-        <v>0.278</v>
+        <v>0.294</v>
       </c>
       <c r="K4">
-        <v>0.781</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6019,10 +6019,10 @@
         <v>2.389</v>
       </c>
       <c r="J5">
-        <v>0.464</v>
+        <v>0.502</v>
       </c>
       <c r="K5">
-        <v>0.643</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6054,10 +6054,10 @@
         <v>7.053</v>
       </c>
       <c r="J6">
-        <v>1.333</v>
+        <v>1.466</v>
       </c>
       <c r="K6">
-        <v>0.184</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6089,10 +6089,10 @@
         <v>2.348</v>
       </c>
       <c r="J7">
-        <v>0.466</v>
+        <v>0.373</v>
       </c>
       <c r="K7">
-        <v>0.641</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6124,10 +6124,10 @@
         <v>0.73</v>
       </c>
       <c r="J8">
-        <v>0.451</v>
+        <v>0.401</v>
       </c>
       <c r="K8">
-        <v>0.652</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6159,10 +6159,10 @@
         <v>-1.268</v>
       </c>
       <c r="J9">
-        <v>-0.765</v>
+        <v>-0.778</v>
       </c>
       <c r="K9">
-        <v>0.445</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6229,10 +6229,10 @@
         <v>0.514</v>
       </c>
       <c r="J11">
-        <v>0.257</v>
+        <v>0.274</v>
       </c>
       <c r="K11">
-        <v>0.797</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6264,10 +6264,10 @@
         <v>-3.228</v>
       </c>
       <c r="J12">
-        <v>-1.541</v>
+        <v>-1.47</v>
       </c>
       <c r="K12">
-        <v>0.125</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6299,10 +6299,10 @@
         <v>-0.98</v>
       </c>
       <c r="J13">
-        <v>-0.483</v>
+        <v>-0.357</v>
       </c>
       <c r="K13">
-        <v>0.629</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6334,10 +6334,10 @@
         <v>-0.043</v>
       </c>
       <c r="J14">
-        <v>-1.473</v>
+        <v>-1.425</v>
       </c>
       <c r="K14">
-        <v>0.142</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6369,10 +6369,10 @@
         <v>-0.002</v>
       </c>
       <c r="J15">
-        <v>-0.063</v>
+        <v>-0.055</v>
       </c>
       <c r="K15">
-        <v>0.95</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6404,10 +6404,10 @@
         <v>0.011</v>
       </c>
       <c r="J16">
-        <v>0.222</v>
+        <v>0.284</v>
       </c>
       <c r="K16">
-        <v>0.824</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6439,10 +6439,10 @@
         <v>0.061</v>
       </c>
       <c r="J17">
-        <v>1.078</v>
+        <v>0.998</v>
       </c>
       <c r="K17">
-        <v>0.282</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6474,10 +6474,10 @@
         <v>0.083</v>
       </c>
       <c r="J18">
-        <v>1.419</v>
+        <v>1.488</v>
       </c>
       <c r="K18">
-        <v>0.157</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6509,10 +6509,10 @@
         <v>-0.004</v>
       </c>
       <c r="J19">
-        <v>-0.058</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="K19">
-        <v>0.954</v>
+        <v>0.944</v>
       </c>
     </row>
   </sheetData>
@@ -6598,10 +6598,10 @@
         <v>-3.117</v>
       </c>
       <c r="I2">
-        <v>-1.26</v>
+        <v>-1.524</v>
       </c>
       <c r="J2">
-        <v>0.209</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6630,10 +6630,10 @@
         <v>2.05</v>
       </c>
       <c r="I3">
-        <v>0.824</v>
+        <v>0.88</v>
       </c>
       <c r="J3">
-        <v>0.41</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6694,10 +6694,10 @@
         <v>1.355</v>
       </c>
       <c r="I5">
-        <v>0.423</v>
+        <v>0.303</v>
       </c>
       <c r="J5">
-        <v>0.673</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6726,10 +6726,10 @@
         <v>4.008</v>
       </c>
       <c r="I6">
-        <v>1.216</v>
+        <v>1.4</v>
       </c>
       <c r="J6">
-        <v>0.225</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6758,10 +6758,10 @@
         <v>-0.836</v>
       </c>
       <c r="I7">
-        <v>-0.267</v>
+        <v>-0.283</v>
       </c>
       <c r="J7">
-        <v>0.79</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6790,10 +6790,10 @@
         <v>1.456</v>
       </c>
       <c r="I8">
-        <v>1.452</v>
+        <v>1.58</v>
       </c>
       <c r="J8">
-        <v>0.148</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6822,10 +6822,10 @@
         <v>-0.977</v>
       </c>
       <c r="I9">
-        <v>-0.947</v>
+        <v>-1.027</v>
       </c>
       <c r="J9">
-        <v>0.345</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6854,10 +6854,10 @@
         <v>0.731</v>
       </c>
       <c r="I10">
-        <v>0.609</v>
+        <v>0.641</v>
       </c>
       <c r="J10">
-        <v>0.543</v>
+        <v>0.522</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6886,10 +6886,10 @@
         <v>-0.352</v>
       </c>
       <c r="I11">
-        <v>-0.283</v>
+        <v>-0.219</v>
       </c>
       <c r="J11">
-        <v>0.777</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6918,10 +6918,10 @@
         <v>-2.42</v>
       </c>
       <c r="I12">
-        <v>-1.86</v>
+        <v>-2.253</v>
       </c>
       <c r="J12">
-        <v>0.064</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6950,10 +6950,10 @@
         <v>-0.344</v>
       </c>
       <c r="I13">
-        <v>-0.273</v>
+        <v>-0.263</v>
       </c>
       <c r="J13">
-        <v>0.785</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6982,10 +6982,10 @@
         <v>-0.03</v>
       </c>
       <c r="I14">
-        <v>-1.667</v>
+        <v>-1.693</v>
       </c>
       <c r="J14">
-        <v>0.097</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7014,7 +7014,7 @@
         <v>-0.001</v>
       </c>
       <c r="I15">
-        <v>-0.054</v>
+        <v>-0.053</v>
       </c>
       <c r="J15">
         <v>0.957</v>
@@ -7046,10 +7046,10 @@
         <v>0.036</v>
       </c>
       <c r="I16">
-        <v>1.152</v>
+        <v>1.681</v>
       </c>
       <c r="J16">
-        <v>0.25</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7078,10 +7078,10 @@
         <v>0.04</v>
       </c>
       <c r="I17">
-        <v>1.148</v>
+        <v>1.058</v>
       </c>
       <c r="J17">
-        <v>0.252</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7110,10 +7110,10 @@
         <v>0.073</v>
       </c>
       <c r="I18">
-        <v>2.008</v>
+        <v>1.955</v>
       </c>
       <c r="J18">
-        <v>0.046</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7142,10 +7142,10 @@
         <v>0.02</v>
       </c>
       <c r="I19">
-        <v>0.521</v>
+        <v>0.509</v>
       </c>
       <c r="J19">
-        <v>0.603</v>
+        <v>0.611</v>
       </c>
     </row>
   </sheetData>
@@ -7231,10 +7231,10 @@
         <v>-3.015</v>
       </c>
       <c r="I2">
-        <v>-0.982</v>
+        <v>-1.028</v>
       </c>
       <c r="J2">
-        <v>0.327</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7263,10 +7263,10 @@
         <v>3.648</v>
       </c>
       <c r="I3">
-        <v>1.185</v>
+        <v>1.102</v>
       </c>
       <c r="J3">
-        <v>0.237</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7295,10 +7295,10 @@
         <v>0.208</v>
       </c>
       <c r="I4">
-        <v>0.055</v>
+        <v>0.047</v>
       </c>
       <c r="J4">
-        <v>0.956</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7327,10 +7327,10 @@
         <v>0.188</v>
       </c>
       <c r="I5">
-        <v>0.047</v>
+        <v>0.033</v>
       </c>
       <c r="J5">
-        <v>0.962</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7359,10 +7359,10 @@
         <v>8.188000000000001</v>
       </c>
       <c r="I6">
-        <v>2.014</v>
+        <v>2.627</v>
       </c>
       <c r="J6">
-        <v>0.045</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7391,10 +7391,10 @@
         <v>1.399</v>
       </c>
       <c r="I7">
-        <v>0.36</v>
+        <v>0.352</v>
       </c>
       <c r="J7">
-        <v>0.719</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7423,10 +7423,10 @@
         <v>2.245</v>
       </c>
       <c r="I8">
-        <v>1.809</v>
+        <v>2.162</v>
       </c>
       <c r="J8">
-        <v>0.07199999999999999</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7455,10 +7455,10 @@
         <v>-1.396</v>
       </c>
       <c r="I9">
-        <v>-1.092</v>
+        <v>-0.915</v>
       </c>
       <c r="J9">
-        <v>0.276</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7487,10 +7487,10 @@
         <v>0.659</v>
       </c>
       <c r="I10">
-        <v>0.443</v>
+        <v>0.383</v>
       </c>
       <c r="J10">
-        <v>0.658</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7519,10 +7519,10 @@
         <v>0.522</v>
       </c>
       <c r="I11">
-        <v>0.338</v>
+        <v>0.245</v>
       </c>
       <c r="J11">
-        <v>0.736</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7551,10 +7551,10 @@
         <v>-3.76</v>
       </c>
       <c r="I12">
-        <v>-2.339</v>
+        <v>-2.936</v>
       </c>
       <c r="J12">
-        <v>0.02</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7583,10 +7583,10 @@
         <v>-1.318</v>
       </c>
       <c r="I13">
-        <v>-0.843</v>
+        <v>-0.788</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7615,10 +7615,10 @@
         <v>-0.03</v>
       </c>
       <c r="I14">
-        <v>-1.358</v>
+        <v>-1.074</v>
       </c>
       <c r="J14">
-        <v>0.176</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7647,10 +7647,10 @@
         <v>0.005</v>
       </c>
       <c r="I15">
-        <v>0.158</v>
+        <v>0.118</v>
       </c>
       <c r="J15">
-        <v>0.875</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7679,10 +7679,10 @@
         <v>0.045</v>
       </c>
       <c r="I16">
-        <v>1.16</v>
+        <v>1.587</v>
       </c>
       <c r="J16">
-        <v>0.247</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7711,10 +7711,10 @@
         <v>0.108</v>
       </c>
       <c r="I17">
-        <v>2.509</v>
+        <v>2.157</v>
       </c>
       <c r="J17">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7743,10 +7743,10 @@
         <v>0.107</v>
       </c>
       <c r="I18">
-        <v>2.389</v>
+        <v>2.291</v>
       </c>
       <c r="J18">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7775,10 +7775,10 @@
         <v>0.051</v>
       </c>
       <c r="I19">
-        <v>1.05</v>
+        <v>0.867</v>
       </c>
       <c r="J19">
-        <v>0.295</v>
+        <v>0.386</v>
       </c>
     </row>
   </sheetData>
@@ -7871,10 +7871,10 @@
         <v>-2.28</v>
       </c>
       <c r="J2">
-        <v>-0.667</v>
+        <v>-0.534</v>
       </c>
       <c r="K2">
-        <v>0.505</v>
+        <v>0.593</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7906,10 +7906,10 @@
         <v>6.233</v>
       </c>
       <c r="J3">
-        <v>1.828</v>
+        <v>1.52</v>
       </c>
       <c r="K3">
-        <v>0.06900000000000001</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7941,10 +7941,10 @@
         <v>-1.039</v>
       </c>
       <c r="J4">
-        <v>-0.248</v>
+        <v>-0.214</v>
       </c>
       <c r="K4">
-        <v>0.805</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7976,10 +7976,10 @@
         <v>0.803</v>
       </c>
       <c r="J5">
-        <v>0.182</v>
+        <v>0.143</v>
       </c>
       <c r="K5">
-        <v>0.856</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8011,10 +8011,10 @@
         <v>7.139</v>
       </c>
       <c r="J6">
-        <v>1.574</v>
+        <v>1.814</v>
       </c>
       <c r="K6">
-        <v>0.117</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8046,10 +8046,10 @@
         <v>1.925</v>
       </c>
       <c r="J7">
-        <v>0.445</v>
+        <v>0.342</v>
       </c>
       <c r="K7">
-        <v>0.656</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8081,10 +8081,10 @@
         <v>2.415</v>
       </c>
       <c r="J8">
-        <v>1.749</v>
+        <v>1.798</v>
       </c>
       <c r="K8">
-        <v>0.082</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8116,10 +8116,10 @@
         <v>-2.147</v>
       </c>
       <c r="J9">
-        <v>-1.514</v>
+        <v>-1.293</v>
       </c>
       <c r="K9">
-        <v>0.131</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8151,10 +8151,10 @@
         <v>0.65</v>
       </c>
       <c r="J10">
-        <v>0.392</v>
+        <v>0.37</v>
       </c>
       <c r="K10">
-        <v>0.695</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8186,10 +8186,10 @@
         <v>0.476</v>
       </c>
       <c r="J11">
-        <v>0.277</v>
+        <v>0.223</v>
       </c>
       <c r="K11">
-        <v>0.782</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8221,10 +8221,10 @@
         <v>-3.631</v>
       </c>
       <c r="J12">
-        <v>-2.026</v>
+        <v>-2.049</v>
       </c>
       <c r="K12">
-        <v>0.044</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8256,10 +8256,10 @@
         <v>-1.466</v>
       </c>
       <c r="J13">
-        <v>-0.843</v>
+        <v>-0.613</v>
       </c>
       <c r="K13">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8291,10 +8291,10 @@
         <v>-0.024</v>
       </c>
       <c r="J14">
-        <v>-0.947</v>
+        <v>-0.8139999999999999</v>
       </c>
       <c r="K14">
-        <v>0.344</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8326,10 +8326,10 @@
         <v>-0.005</v>
       </c>
       <c r="J15">
-        <v>-0.149</v>
+        <v>-0.122</v>
       </c>
       <c r="K15">
-        <v>0.882</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8361,10 +8361,10 @@
         <v>0.067</v>
       </c>
       <c r="J16">
-        <v>1.569</v>
+        <v>2.013</v>
       </c>
       <c r="K16">
-        <v>0.118</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8396,10 +8396,10 @@
         <v>0.093</v>
       </c>
       <c r="J17">
-        <v>1.941</v>
+        <v>1.952</v>
       </c>
       <c r="K17">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8431,10 +8431,10 @@
         <v>0.06900000000000001</v>
       </c>
       <c r="J18">
-        <v>1.369</v>
+        <v>1.611</v>
       </c>
       <c r="K18">
-        <v>0.172</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8466,10 +8466,10 @@
         <v>0.005</v>
       </c>
       <c r="J19">
-        <v>0.08799999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="K19">
-        <v>0.93</v>
+        <v>0.931</v>
       </c>
     </row>
   </sheetData>
@@ -8562,10 +8562,10 @@
         <v>-0.146</v>
       </c>
       <c r="J2">
-        <v>-0.037</v>
+        <v>-0.026</v>
       </c>
       <c r="K2">
-        <v>0.971</v>
+        <v>0.979</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8597,10 +8597,10 @@
         <v>5.042</v>
       </c>
       <c r="J3">
-        <v>1.271</v>
+        <v>1.115</v>
       </c>
       <c r="K3">
-        <v>0.205</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8632,10 +8632,10 @@
         <v>-2.689</v>
       </c>
       <c r="J4">
-        <v>-0.553</v>
+        <v>-0.508</v>
       </c>
       <c r="K4">
-        <v>0.581</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8667,10 +8667,10 @@
         <v>2.752</v>
       </c>
       <c r="J5">
-        <v>0.537</v>
+        <v>0.45</v>
       </c>
       <c r="K5">
-        <v>0.592</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8702,10 +8702,10 @@
         <v>9.534000000000001</v>
       </c>
       <c r="J6">
-        <v>1.817</v>
+        <v>2.157</v>
       </c>
       <c r="K6">
-        <v>0.07000000000000001</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8737,10 +8737,10 @@
         <v>1.87</v>
       </c>
       <c r="J7">
-        <v>0.373</v>
+        <v>0.311</v>
       </c>
       <c r="K7">
-        <v>0.709</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8772,10 +8772,10 @@
         <v>1.177</v>
       </c>
       <c r="J8">
-        <v>0.732</v>
+        <v>0.62</v>
       </c>
       <c r="K8">
-        <v>0.465</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8807,10 +8807,10 @@
         <v>-2.045</v>
       </c>
       <c r="J9">
-        <v>-1.242</v>
+        <v>-1.256</v>
       </c>
       <c r="K9">
-        <v>0.215</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8842,7 +8842,7 @@
         <v>1.23</v>
       </c>
       <c r="J10">
-        <v>0.641</v>
+        <v>0.64</v>
       </c>
       <c r="K10">
         <v>0.522</v>
@@ -8877,10 +8877,10 @@
         <v>0.293</v>
       </c>
       <c r="J11">
-        <v>0.147</v>
+        <v>0.119</v>
       </c>
       <c r="K11">
-        <v>0.883</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8912,10 +8912,10 @@
         <v>-5.048</v>
       </c>
       <c r="J12">
-        <v>-2.438</v>
+        <v>-2.554</v>
       </c>
       <c r="K12">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8947,10 +8947,10 @@
         <v>-1.185</v>
       </c>
       <c r="J13">
-        <v>-0.587</v>
+        <v>-0.443</v>
       </c>
       <c r="K13">
-        <v>0.5580000000000001</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8982,10 +8982,10 @@
         <v>-0.027</v>
       </c>
       <c r="J14">
-        <v>-0.948</v>
+        <v>-0.826</v>
       </c>
       <c r="K14">
-        <v>0.344</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -9017,10 +9017,10 @@
         <v>0.023</v>
       </c>
       <c r="J15">
-        <v>0.618</v>
+        <v>0.722</v>
       </c>
       <c r="K15">
-        <v>0.537</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9052,10 +9052,10 @@
         <v>0.058</v>
       </c>
       <c r="J16">
-        <v>1.154</v>
+        <v>1.459</v>
       </c>
       <c r="K16">
-        <v>0.249</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -9087,10 +9087,10 @@
         <v>0.067</v>
       </c>
       <c r="J17">
-        <v>1.194</v>
+        <v>1.212</v>
       </c>
       <c r="K17">
-        <v>0.234</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9122,10 +9122,10 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="J18">
-        <v>1.454</v>
+        <v>1.441</v>
       </c>
       <c r="K18">
-        <v>0.147</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9157,10 +9157,10 @@
         <v>-0.013</v>
       </c>
       <c r="J19">
-        <v>-0.215</v>
+        <v>-0.273</v>
       </c>
       <c r="K19">
-        <v>0.83</v>
+        <v>0.785</v>
       </c>
     </row>
   </sheetData>
@@ -9239,10 +9239,10 @@
         <v>2.519</v>
       </c>
       <c r="H2">
-        <v>0.667</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I2">
-        <v>0.506</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9268,10 +9268,10 @@
         <v>6.309</v>
       </c>
       <c r="H3">
-        <v>1.672</v>
+        <v>1.43</v>
       </c>
       <c r="I3">
-        <v>0.096</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9297,10 +9297,10 @@
         <v>0.803</v>
       </c>
       <c r="H4">
-        <v>0.173</v>
+        <v>0.179</v>
       </c>
       <c r="I4">
-        <v>0.863</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9326,10 +9326,10 @@
         <v>3.691</v>
       </c>
       <c r="H5">
-        <v>0.756</v>
+        <v>0.613</v>
       </c>
       <c r="I5">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9355,10 +9355,10 @@
         <v>7.259</v>
       </c>
       <c r="H6">
-        <v>1.447</v>
+        <v>1.342</v>
       </c>
       <c r="I6">
-        <v>0.149</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9384,10 +9384,10 @@
         <v>4.445</v>
       </c>
       <c r="H7">
-        <v>0.9320000000000001</v>
+        <v>0.972</v>
       </c>
       <c r="I7">
-        <v>0.352</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9442,10 +9442,10 @@
         <v>-2.446</v>
       </c>
       <c r="H9">
-        <v>-1.561</v>
+        <v>-1.298</v>
       </c>
       <c r="I9">
-        <v>0.12</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9471,10 +9471,10 @@
         <v>-0.398</v>
       </c>
       <c r="H10">
-        <v>-0.217</v>
+        <v>-0.242</v>
       </c>
       <c r="I10">
-        <v>0.828</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9500,10 +9500,10 @@
         <v>-0.418</v>
       </c>
       <c r="H11">
-        <v>-0.22</v>
+        <v>-0.19</v>
       </c>
       <c r="I11">
-        <v>0.826</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9529,10 +9529,10 @@
         <v>-2.97</v>
       </c>
       <c r="H12">
-        <v>-1.494</v>
+        <v>-1.328</v>
       </c>
       <c r="I12">
-        <v>0.136</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9558,10 +9558,10 @@
         <v>-1.96</v>
       </c>
       <c r="H13">
-        <v>-1.02</v>
+        <v>-0.954</v>
       </c>
       <c r="I13">
-        <v>0.309</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9587,10 +9587,10 @@
         <v>-0.027</v>
       </c>
       <c r="H14">
-        <v>-0.991</v>
+        <v>-0.956</v>
       </c>
       <c r="I14">
-        <v>0.323</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9616,10 +9616,10 @@
         <v>0.037</v>
       </c>
       <c r="H15">
-        <v>1.054</v>
+        <v>1.337</v>
       </c>
       <c r="I15">
-        <v>0.293</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9645,10 +9645,10 @@
         <v>0.046</v>
       </c>
       <c r="H16">
-        <v>0.965</v>
+        <v>1.69</v>
       </c>
       <c r="I16">
-        <v>0.336</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9674,10 +9674,10 @@
         <v>0.08</v>
       </c>
       <c r="H17">
-        <v>1.509</v>
+        <v>1.33</v>
       </c>
       <c r="I17">
-        <v>0.133</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9703,10 +9703,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="H18">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="I18">
-        <v>0.113</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9732,10 +9732,10 @@
         <v>-0.02</v>
       </c>
       <c r="H19">
-        <v>-0.342</v>
+        <v>-0.283</v>
       </c>
       <c r="I19">
-        <v>0.733</v>
+        <v>0.777</v>
       </c>
     </row>
   </sheetData>
@@ -9821,10 +9821,10 @@
         <v>6.1</v>
       </c>
       <c r="I2">
-        <v>1.435</v>
+        <v>1.16</v>
       </c>
       <c r="J2">
-        <v>0.153</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9853,10 +9853,10 @@
         <v>6.314</v>
       </c>
       <c r="I3">
-        <v>1.48</v>
+        <v>1.407</v>
       </c>
       <c r="J3">
-        <v>0.14</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9885,10 +9885,10 @@
         <v>1.594</v>
       </c>
       <c r="I4">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
       <c r="J4">
-        <v>0.761</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9917,10 +9917,10 @@
         <v>0.666</v>
       </c>
       <c r="I5">
-        <v>0.121</v>
+        <v>0.112</v>
       </c>
       <c r="J5">
-        <v>0.904</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9949,10 +9949,10 @@
         <v>4.417</v>
       </c>
       <c r="I6">
-        <v>0.778</v>
+        <v>0.737</v>
       </c>
       <c r="J6">
-        <v>0.438</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9981,10 +9981,10 @@
         <v>4.148</v>
       </c>
       <c r="I7">
-        <v>0.769</v>
+        <v>0.672</v>
       </c>
       <c r="J7">
-        <v>0.442</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10013,10 +10013,10 @@
         <v>-0.957</v>
       </c>
       <c r="I8">
-        <v>-0.553</v>
+        <v>-0.717</v>
       </c>
       <c r="J8">
-        <v>0.581</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10045,10 +10045,10 @@
         <v>-2.069</v>
       </c>
       <c r="I9">
-        <v>-1.167</v>
+        <v>-1.043</v>
       </c>
       <c r="J9">
-        <v>0.244</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10077,10 +10077,10 @@
         <v>-0.375</v>
       </c>
       <c r="I10">
-        <v>-0.181</v>
+        <v>-0.207</v>
       </c>
       <c r="J10">
-        <v>0.856</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10109,10 +10109,10 @@
         <v>0.767</v>
       </c>
       <c r="I11">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="J11">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10141,10 +10141,10 @@
         <v>-2.321</v>
       </c>
       <c r="I12">
-        <v>-1.031</v>
+        <v>-0.927</v>
       </c>
       <c r="J12">
-        <v>0.303</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10173,10 +10173,10 @@
         <v>-1.955</v>
       </c>
       <c r="I13">
-        <v>-0.901</v>
+        <v>-0.758</v>
       </c>
       <c r="J13">
-        <v>0.368</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10205,7 +10205,7 @@
         <v>-0.01</v>
       </c>
       <c r="I14">
-        <v>-0.313</v>
+        <v>-0.312</v>
       </c>
       <c r="J14">
         <v>0.755</v>
@@ -10237,10 +10237,10 @@
         <v>0.015</v>
       </c>
       <c r="I15">
-        <v>0.369</v>
+        <v>0.398</v>
       </c>
       <c r="J15">
-        <v>0.712</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10269,10 +10269,10 @@
         <v>0.033</v>
       </c>
       <c r="I16">
-        <v>0.621</v>
+        <v>0.847</v>
       </c>
       <c r="J16">
-        <v>0.535</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10301,10 +10301,10 @@
         <v>0.066</v>
       </c>
       <c r="I17">
-        <v>1.098</v>
+        <v>0.977</v>
       </c>
       <c r="J17">
-        <v>0.273</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10333,10 +10333,10 @@
         <v>0.034</v>
       </c>
       <c r="I18">
-        <v>0.536</v>
+        <v>0.553</v>
       </c>
       <c r="J18">
-        <v>0.593</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10365,10 +10365,10 @@
         <v>-0.026</v>
       </c>
       <c r="I19">
-        <v>-0.396</v>
+        <v>-0.39</v>
       </c>
       <c r="J19">
-        <v>0.6929999999999999</v>
+        <v>0.696</v>
       </c>
     </row>
   </sheetData>
@@ -10454,10 +10454,10 @@
         <v>6.341</v>
       </c>
       <c r="I2">
-        <v>1.245</v>
+        <v>0.966</v>
       </c>
       <c r="J2">
-        <v>0.214</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10486,10 +10486,10 @@
         <v>4.968</v>
       </c>
       <c r="I3">
-        <v>0.971</v>
+        <v>1.088</v>
       </c>
       <c r="J3">
-        <v>0.333</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10518,10 +10518,10 @@
         <v>1.607</v>
       </c>
       <c r="I4">
-        <v>0.257</v>
+        <v>0.259</v>
       </c>
       <c r="J4">
-        <v>0.798</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10582,10 +10582,10 @@
         <v>5.645</v>
       </c>
       <c r="I6">
-        <v>0.831</v>
+        <v>0.854</v>
       </c>
       <c r="J6">
-        <v>0.407</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10614,10 +10614,10 @@
         <v>3.89</v>
       </c>
       <c r="I7">
-        <v>0.603</v>
+        <v>0.578</v>
       </c>
       <c r="J7">
-        <v>0.547</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10646,10 +10646,10 @@
         <v>-1.319</v>
       </c>
       <c r="I8">
-        <v>-0.636</v>
+        <v>-0.611</v>
       </c>
       <c r="J8">
-        <v>0.525</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10678,10 +10678,10 @@
         <v>-2.199</v>
       </c>
       <c r="I9">
-        <v>-1.036</v>
+        <v>-1.125</v>
       </c>
       <c r="J9">
-        <v>0.301</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10710,10 +10710,10 @@
         <v>-0.537</v>
       </c>
       <c r="I10">
-        <v>-0.217</v>
+        <v>-0.227</v>
       </c>
       <c r="J10">
-        <v>0.828</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10742,10 +10742,10 @@
         <v>1.43</v>
       </c>
       <c r="I11">
-        <v>0.5580000000000001</v>
+        <v>0.574</v>
       </c>
       <c r="J11">
-        <v>0.577</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10774,10 +10774,10 @@
         <v>-3.062</v>
       </c>
       <c r="I12">
-        <v>-1.138</v>
+        <v>-1.019</v>
       </c>
       <c r="J12">
-        <v>0.256</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10806,10 +10806,10 @@
         <v>-1.468</v>
       </c>
       <c r="I13">
-        <v>-0.5649999999999999</v>
+        <v>-0.492</v>
       </c>
       <c r="J13">
-        <v>0.573</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10838,10 +10838,10 @@
         <v>-0.035</v>
       </c>
       <c r="I14">
-        <v>-0.931</v>
+        <v>-0.871</v>
       </c>
       <c r="J14">
-        <v>0.353</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10870,10 +10870,10 @@
         <v>0.039</v>
       </c>
       <c r="I15">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="J15">
-        <v>0.408</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10902,10 +10902,10 @@
         <v>0.014</v>
       </c>
       <c r="I16">
-        <v>0.224</v>
+        <v>0.318</v>
       </c>
       <c r="J16">
-        <v>0.823</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10934,10 +10934,10 @@
         <v>0.05</v>
       </c>
       <c r="I17">
-        <v>0.697</v>
+        <v>0.675</v>
       </c>
       <c r="J17">
-        <v>0.487</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10966,10 +10966,10 @@
         <v>0.056</v>
       </c>
       <c r="I18">
-        <v>0.748</v>
+        <v>0.721</v>
       </c>
       <c r="J18">
-        <v>0.455</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10998,10 +10998,10 @@
         <v>-0.033</v>
       </c>
       <c r="I19">
-        <v>-0.411</v>
+        <v>-0.528</v>
       </c>
       <c r="J19">
-        <v>0.681</v>
+        <v>0.597</v>
       </c>
     </row>
   </sheetData>
@@ -11080,10 +11080,10 @@
         <v>-3.524</v>
       </c>
       <c r="H2">
-        <v>-1.262</v>
+        <v>-1.357</v>
       </c>
       <c r="I2">
-        <v>0.208</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11109,10 +11109,10 @@
         <v>-0.121</v>
       </c>
       <c r="H3">
-        <v>-0.043</v>
+        <v>-0.048</v>
       </c>
       <c r="I3">
-        <v>0.966</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11138,10 +11138,10 @@
         <v>-1.156</v>
       </c>
       <c r="H4">
-        <v>-0.336</v>
+        <v>-0.33</v>
       </c>
       <c r="I4">
-        <v>0.737</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11167,10 +11167,10 @@
         <v>-0.482</v>
       </c>
       <c r="H5">
-        <v>-0.133</v>
+        <v>-0.098</v>
       </c>
       <c r="I5">
-        <v>0.894</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11196,10 +11196,10 @@
         <v>0.527</v>
       </c>
       <c r="H6">
-        <v>0.141</v>
+        <v>0.125</v>
       </c>
       <c r="I6">
-        <v>0.888</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11225,10 +11225,10 @@
         <v>-4.275</v>
       </c>
       <c r="H7">
-        <v>-1.21</v>
+        <v>-1.215</v>
       </c>
       <c r="I7">
-        <v>0.227</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11254,10 +11254,10 @@
         <v>1.368</v>
       </c>
       <c r="H8">
-        <v>1.206</v>
+        <v>1.229</v>
       </c>
       <c r="I8">
-        <v>0.229</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11283,10 +11283,10 @@
         <v>-0.17</v>
       </c>
       <c r="H9">
-        <v>-0.146</v>
+        <v>-0.183</v>
       </c>
       <c r="I9">
-        <v>0.884</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11312,10 +11312,10 @@
         <v>0.923</v>
       </c>
       <c r="H10">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="I10">
-        <v>0.497</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11341,10 +11341,10 @@
         <v>0.341</v>
       </c>
       <c r="H11">
-        <v>0.243</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
-        <v>0.8080000000000001</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11370,10 +11370,10 @@
         <v>-0.527</v>
       </c>
       <c r="H12">
-        <v>-0.356</v>
+        <v>-0.354</v>
       </c>
       <c r="I12">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11399,10 +11399,10 @@
         <v>0.642</v>
       </c>
       <c r="H13">
-        <v>0.451</v>
+        <v>0.438</v>
       </c>
       <c r="I13">
-        <v>0.653</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11428,10 +11428,10 @@
         <v>-0.034</v>
       </c>
       <c r="H14">
-        <v>-1.648</v>
+        <v>-1.619</v>
       </c>
       <c r="I14">
-        <v>0.101</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11457,10 +11457,10 @@
         <v>0.015</v>
       </c>
       <c r="H15">
-        <v>0.591</v>
+        <v>0.662</v>
       </c>
       <c r="I15">
-        <v>0.555</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11486,10 +11486,10 @@
         <v>0.062</v>
       </c>
       <c r="H16">
-        <v>1.771</v>
+        <v>2.314</v>
       </c>
       <c r="I16">
-        <v>0.078</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11515,10 +11515,10 @@
         <v>0.055</v>
       </c>
       <c r="H17">
-        <v>1.395</v>
+        <v>1.195</v>
       </c>
       <c r="I17">
-        <v>0.164</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11544,10 +11544,10 @@
         <v>0.094</v>
       </c>
       <c r="H18">
-        <v>2.294</v>
+        <v>1.864</v>
       </c>
       <c r="I18">
-        <v>0.023</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11573,10 +11573,10 @@
         <v>0.038</v>
       </c>
       <c r="H19">
-        <v>0.859</v>
+        <v>0.734</v>
       </c>
       <c r="I19">
-        <v>0.391</v>
+        <v>0.463</v>
       </c>
     </row>
   </sheetData>
@@ -11662,10 +11662,10 @@
         <v>-1.797</v>
       </c>
       <c r="I2">
-        <v>-0.538</v>
+        <v>-0.455</v>
       </c>
       <c r="J2">
-        <v>0.591</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11694,10 +11694,10 @@
         <v>2.08</v>
       </c>
       <c r="I3">
-        <v>0.62</v>
+        <v>0.719</v>
       </c>
       <c r="J3">
-        <v>0.536</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11726,10 +11726,10 @@
         <v>1.354</v>
       </c>
       <c r="I4">
-        <v>0.331</v>
+        <v>0.308</v>
       </c>
       <c r="J4">
-        <v>0.741</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11758,10 +11758,10 @@
         <v>2.216</v>
       </c>
       <c r="I5">
-        <v>0.513</v>
+        <v>0.397</v>
       </c>
       <c r="J5">
-        <v>0.608</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11790,7 +11790,7 @@
         <v>6.508</v>
       </c>
       <c r="I6">
-        <v>1.468</v>
+        <v>1.464</v>
       </c>
       <c r="J6">
         <v>0.143</v>
@@ -11822,10 +11822,10 @@
         <v>-0.377</v>
       </c>
       <c r="I7">
-        <v>-0.089</v>
+        <v>-0.092</v>
       </c>
       <c r="J7">
-        <v>0.929</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11854,10 +11854,10 @@
         <v>1.773</v>
       </c>
       <c r="I8">
-        <v>1.311</v>
+        <v>1.329</v>
       </c>
       <c r="J8">
-        <v>0.191</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11886,10 +11886,10 @@
         <v>-0.614</v>
       </c>
       <c r="I9">
-        <v>-0.441</v>
+        <v>-0.496</v>
       </c>
       <c r="J9">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11918,7 +11918,7 @@
         <v>0.27</v>
       </c>
       <c r="I10">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="J10">
         <v>0.868</v>
@@ -11950,10 +11950,10 @@
         <v>-0.374</v>
       </c>
       <c r="I11">
-        <v>-0.223</v>
+        <v>-0.185</v>
       </c>
       <c r="J11">
-        <v>0.824</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11982,10 +11982,10 @@
         <v>-2.789</v>
       </c>
       <c r="I12">
-        <v>-1.588</v>
+        <v>-1.613</v>
       </c>
       <c r="J12">
-        <v>0.114</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12014,10 +12014,10 @@
         <v>-0.767</v>
       </c>
       <c r="I13">
-        <v>-0.451</v>
+        <v>-0.447</v>
       </c>
       <c r="J13">
-        <v>0.652</v>
+        <v>0.655</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12046,10 +12046,10 @@
         <v>-0.042</v>
       </c>
       <c r="I14">
-        <v>-1.72</v>
+        <v>-1.385</v>
       </c>
       <c r="J14">
-        <v>0.08699999999999999</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12078,10 +12078,10 @@
         <v>0.011</v>
       </c>
       <c r="I15">
-        <v>0.352</v>
+        <v>0.326</v>
       </c>
       <c r="J15">
-        <v>0.725</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12110,10 +12110,10 @@
         <v>0.057</v>
       </c>
       <c r="I16">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="J16">
-        <v>0.175</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12142,10 +12142,10 @@
         <v>0.083</v>
       </c>
       <c r="I17">
-        <v>1.772</v>
+        <v>1.666</v>
       </c>
       <c r="J17">
-        <v>0.078</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12174,10 +12174,10 @@
         <v>0.122</v>
       </c>
       <c r="I18">
-        <v>2.517</v>
+        <v>2.227</v>
       </c>
       <c r="J18">
-        <v>0.012</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12206,10 +12206,10 @@
         <v>0.052</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J19">
-        <v>0.318</v>
+        <v>0.424</v>
       </c>
     </row>
   </sheetData>
@@ -12295,10 +12295,10 @@
         <v>-0.135</v>
       </c>
       <c r="I2">
-        <v>-0.036</v>
+        <v>-0.031</v>
       </c>
       <c r="J2">
-        <v>0.971</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12327,10 +12327,10 @@
         <v>2.326</v>
       </c>
       <c r="I3">
-        <v>0.624</v>
+        <v>0.638</v>
       </c>
       <c r="J3">
-        <v>0.533</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12359,10 +12359,10 @@
         <v>0.23</v>
       </c>
       <c r="I4">
-        <v>0.051</v>
+        <v>0.045</v>
       </c>
       <c r="J4">
-        <v>0.96</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12391,10 +12391,10 @@
         <v>-0.215</v>
       </c>
       <c r="I5">
-        <v>-0.045</v>
+        <v>-0.038</v>
       </c>
       <c r="J5">
-        <v>0.964</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12423,10 +12423,10 @@
         <v>4.154</v>
       </c>
       <c r="I6">
-        <v>0.84</v>
+        <v>0.757</v>
       </c>
       <c r="J6">
-        <v>0.402</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12455,10 +12455,10 @@
         <v>-1.78</v>
       </c>
       <c r="I7">
-        <v>-0.379</v>
+        <v>-0.302</v>
       </c>
       <c r="J7">
-        <v>0.705</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12487,10 +12487,10 @@
         <v>1.158</v>
       </c>
       <c r="I8">
-        <v>0.768</v>
+        <v>0.97</v>
       </c>
       <c r="J8">
-        <v>0.443</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12519,10 +12519,10 @@
         <v>-0.778</v>
       </c>
       <c r="I9">
-        <v>-0.503</v>
+        <v>-0.518</v>
       </c>
       <c r="J9">
-        <v>0.615</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12551,10 +12551,10 @@
         <v>0.372</v>
       </c>
       <c r="I10">
-        <v>0.207</v>
+        <v>0.212</v>
       </c>
       <c r="J10">
-        <v>0.836</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12583,10 +12583,10 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="I11">
-        <v>0.302</v>
+        <v>0.277</v>
       </c>
       <c r="J11">
-        <v>0.763</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12615,10 +12615,10 @@
         <v>-2.479</v>
       </c>
       <c r="I12">
-        <v>-1.266</v>
+        <v>-1.069</v>
       </c>
       <c r="J12">
-        <v>0.207</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12647,10 +12647,10 @@
         <v>-0.585</v>
       </c>
       <c r="I13">
-        <v>-0.309</v>
+        <v>-0.233</v>
       </c>
       <c r="J13">
-        <v>0.758</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12679,10 +12679,10 @@
         <v>-0.033</v>
       </c>
       <c r="I14">
-        <v>-1.228</v>
+        <v>-1.2</v>
       </c>
       <c r="J14">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12711,10 +12711,10 @@
         <v>-0.014</v>
       </c>
       <c r="I15">
-        <v>-0.416</v>
+        <v>-0.39</v>
       </c>
       <c r="J15">
-        <v>0.678</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12743,10 +12743,10 @@
         <v>0.034</v>
       </c>
       <c r="I16">
-        <v>0.717</v>
+        <v>1.249</v>
       </c>
       <c r="J16">
-        <v>0.474</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12775,10 +12775,10 @@
         <v>0.05</v>
       </c>
       <c r="I17">
-        <v>0.948</v>
+        <v>0.989</v>
       </c>
       <c r="J17">
-        <v>0.344</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12810,7 +12810,7 @@
         <v>1.092</v>
       </c>
       <c r="J18">
-        <v>0.276</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12839,10 +12839,10 @@
         <v>0.024</v>
       </c>
       <c r="I19">
-        <v>0.414</v>
+        <v>0.454</v>
       </c>
       <c r="J19">
-        <v>0.679</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -12935,10 +12935,10 @@
         <v>-0.366</v>
       </c>
       <c r="J2">
-        <v>-0.08599999999999999</v>
+        <v>-0.065</v>
       </c>
       <c r="K2">
-        <v>0.9320000000000001</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12970,10 +12970,10 @@
         <v>1.476</v>
       </c>
       <c r="J3">
-        <v>0.345</v>
+        <v>0.359</v>
       </c>
       <c r="K3">
-        <v>0.73</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13005,10 +13005,10 @@
         <v>0.306</v>
       </c>
       <c r="J4">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="K4">
-        <v>0.953</v>
+        <v>0.955</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13040,10 +13040,10 @@
         <v>0.435</v>
       </c>
       <c r="J5">
-        <v>0.079</v>
+        <v>0.077</v>
       </c>
       <c r="K5">
-        <v>0.9370000000000001</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13075,7 +13075,7 @@
         <v>6.27</v>
       </c>
       <c r="J6">
-        <v>1.107</v>
+        <v>1.105</v>
       </c>
       <c r="K6">
         <v>0.269</v>
@@ -13110,10 +13110,10 @@
         <v>-1.348</v>
       </c>
       <c r="J7">
-        <v>-0.25</v>
+        <v>-0.208</v>
       </c>
       <c r="K7">
-        <v>0.803</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13145,10 +13145,10 @@
         <v>0.9409999999999999</v>
       </c>
       <c r="J8">
-        <v>0.544</v>
+        <v>0.48</v>
       </c>
       <c r="K8">
-        <v>0.587</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13180,10 +13180,10 @@
         <v>-1.259</v>
       </c>
       <c r="J9">
-        <v>-0.71</v>
+        <v>-0.803</v>
       </c>
       <c r="K9">
-        <v>0.478</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13250,10 +13250,10 @@
         <v>0.631</v>
       </c>
       <c r="J11">
-        <v>0.295</v>
+        <v>0.291</v>
       </c>
       <c r="K11">
-        <v>0.768</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13285,10 +13285,10 @@
         <v>-3.368</v>
       </c>
       <c r="J12">
-        <v>-1.503</v>
+        <v>-1.352</v>
       </c>
       <c r="K12">
-        <v>0.134</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13320,10 +13320,10 @@
         <v>-0.425</v>
       </c>
       <c r="J13">
-        <v>-0.196</v>
+        <v>-0.149</v>
       </c>
       <c r="K13">
-        <v>0.845</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13355,10 +13355,10 @@
         <v>-0.043</v>
       </c>
       <c r="J14">
-        <v>-1.373</v>
+        <v>-1.208</v>
       </c>
       <c r="K14">
-        <v>0.171</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13390,10 +13390,10 @@
         <v>-0.001</v>
       </c>
       <c r="J15">
-        <v>-0.035</v>
+        <v>-0.033</v>
       </c>
       <c r="K15">
-        <v>0.972</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13425,10 +13425,10 @@
         <v>0.017</v>
       </c>
       <c r="J16">
-        <v>0.321</v>
+        <v>0.488</v>
       </c>
       <c r="K16">
-        <v>0.748</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13460,10 +13460,10 @@
         <v>0.03</v>
       </c>
       <c r="J17">
-        <v>0.505</v>
+        <v>0.555</v>
       </c>
       <c r="K17">
-        <v>0.614</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13495,10 +13495,10 @@
         <v>0.091</v>
       </c>
       <c r="J18">
-        <v>1.449</v>
+        <v>1.482</v>
       </c>
       <c r="K18">
-        <v>0.149</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13530,10 +13530,10 @@
         <v>0.026</v>
       </c>
       <c r="J19">
-        <v>0.388</v>
+        <v>0.554</v>
       </c>
       <c r="K19">
-        <v>0.698</v>
+        <v>0.579</v>
       </c>
     </row>
   </sheetData>
@@ -13619,10 +13619,10 @@
         <v>-3.546</v>
       </c>
       <c r="I2">
-        <v>-1.41</v>
+        <v>-1.816</v>
       </c>
       <c r="J2">
-        <v>0.16</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13651,10 +13651,10 @@
         <v>0.063</v>
       </c>
       <c r="I3">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="J3">
-        <v>0.98</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13683,10 +13683,10 @@
         <v>-0.638</v>
       </c>
       <c r="I4">
-        <v>-0.206</v>
+        <v>-0.239</v>
       </c>
       <c r="J4">
-        <v>0.837</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13715,10 +13715,10 @@
         <v>0.261</v>
       </c>
       <c r="I5">
-        <v>0.08</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J5">
-        <v>0.9360000000000001</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13747,10 +13747,10 @@
         <v>1.621</v>
       </c>
       <c r="I6">
-        <v>0.482</v>
+        <v>0.588</v>
       </c>
       <c r="J6">
-        <v>0.63</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13779,10 +13779,10 @@
         <v>-1.747</v>
       </c>
       <c r="I7">
-        <v>-0.547</v>
+        <v>-0.605</v>
       </c>
       <c r="J7">
-        <v>0.585</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13811,10 +13811,10 @@
         <v>1.567</v>
       </c>
       <c r="I8">
-        <v>1.535</v>
+        <v>1.697</v>
       </c>
       <c r="J8">
-        <v>0.126</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13843,10 +13843,10 @@
         <v>-0.531</v>
       </c>
       <c r="I9">
-        <v>-0.505</v>
+        <v>-0.497</v>
       </c>
       <c r="J9">
-        <v>0.614</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13875,10 +13875,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="I10">
-        <v>0.769</v>
+        <v>0.926</v>
       </c>
       <c r="J10">
-        <v>0.442</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13907,10 +13907,10 @@
         <v>0.096</v>
       </c>
       <c r="I11">
-        <v>0.076</v>
+        <v>0.073</v>
       </c>
       <c r="J11">
-        <v>0.9399999999999999</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13939,10 +13939,10 @@
         <v>-0.889</v>
       </c>
       <c r="I12">
-        <v>-0.667</v>
+        <v>-0.826</v>
       </c>
       <c r="J12">
-        <v>0.505</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13971,10 +13971,10 @@
         <v>0.322</v>
       </c>
       <c r="I13">
-        <v>0.25</v>
+        <v>0.223</v>
       </c>
       <c r="J13">
-        <v>0.803</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14003,10 +14003,10 @@
         <v>-0.024</v>
       </c>
       <c r="I14">
-        <v>-1.283</v>
+        <v>-1.52</v>
       </c>
       <c r="J14">
-        <v>0.201</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14035,10 +14035,10 @@
         <v>0.012</v>
       </c>
       <c r="I15">
-        <v>0.495</v>
+        <v>0.455</v>
       </c>
       <c r="J15">
-        <v>0.621</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14067,10 +14067,10 @@
         <v>0.037</v>
       </c>
       <c r="I16">
-        <v>1.175</v>
+        <v>1.582</v>
       </c>
       <c r="J16">
-        <v>0.241</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14099,10 +14099,10 @@
         <v>0.044</v>
       </c>
       <c r="I17">
-        <v>1.221</v>
+        <v>0.927</v>
       </c>
       <c r="J17">
-        <v>0.223</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14131,10 +14131,10 @@
         <v>0.062</v>
       </c>
       <c r="I18">
-        <v>1.688</v>
+        <v>1.55</v>
       </c>
       <c r="J18">
-        <v>0.093</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14163,10 +14163,10 @@
         <v>0.018</v>
       </c>
       <c r="I19">
-        <v>0.463</v>
+        <v>0.389</v>
       </c>
       <c r="J19">
-        <v>0.644</v>
+        <v>0.697</v>
       </c>
     </row>
   </sheetData>
